--- a/tests/integration_test_files/template.xlsx
+++ b/tests/integration_test_files/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD5DB0-AC69-CD46-B207-E3C81A05B75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33584491-CF9C-9140-9D5D-D5B886D21AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52200" yWindow="500" windowWidth="47440" windowHeight="27240" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="47440" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1529">
   <si>
     <t>Screening</t>
   </si>
@@ -6777,6 +6777,9 @@
   <si>
     <t>trialSubTypes</t>
   </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
 </sst>
 </file>
 
@@ -13882,72 +13885,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="32"/>
+    <col min="4" max="4" width="12" style="32" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>1504</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>1505</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -20969,7 +20985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -21248,21 +21264,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21325,6 +21341,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -21525,17 +21552,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21546,6 +21562,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21564,23 +21597,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>

--- a/tests/integration_test_files/template.xlsx
+++ b/tests/integration_test_files/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33584491-CF9C-9140-9D5D-D5B886D21AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C403EB4F-8A41-234F-B4A2-40E0699CBF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="47440" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="12" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -3751,12 +3751,6 @@
   </si>
   <si>
     <t>Hachinski Ischemic Scale</t>
-  </si>
-  <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
   </si>
   <si>
     <t>1</t>
@@ -6780,6 +6774,12 @@
   <si>
     <t>AMEND_1</t>
   </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
+  </si>
 </sst>
 </file>
 
@@ -7716,13 +7716,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C19" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="D19" t="s">
         <v>247</v>
@@ -7879,7 +7879,7 @@
         <v>796</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7998,7 +7998,7 @@
         <v>823</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8032,7 +8032,7 @@
         <v>802</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8066,7 +8066,7 @@
         <v>804</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8083,7 +8083,7 @@
         <v>805</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8100,7 +8100,7 @@
         <v>806</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -8117,7 +8117,7 @@
         <v>807</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8134,7 +8134,7 @@
         <v>824</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8151,7 +8151,7 @@
         <v>808</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8168,7 +8168,7 @@
         <v>809</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8202,7 +8202,7 @@
         <v>811</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -8270,7 +8270,7 @@
         <v>816</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -8321,7 +8321,7 @@
         <v>819</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
@@ -13887,7 +13887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -13926,7 +13926,7 @@
         <v>255</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>256</v>
@@ -13935,12 +13935,12 @@
         <v>239</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -13961,10 +13961,10 @@
         <v>455</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
   </sheetData>
@@ -14215,8 +14215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14283,7 +14283,7 @@
         <v>344</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>855</v>
+        <v>1527</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>47</v>
@@ -14328,7 +14328,7 @@
         <v>346</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>855</v>
+        <v>1527</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>59</v>
@@ -14390,8 +14390,8 @@
       <c r="D7" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>856</v>
+      <c r="E7" s="11" t="s">
+        <v>1528</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>188</v>
@@ -14446,8 +14446,8 @@
       <c r="D10" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>856</v>
+      <c r="E10" s="11" t="s">
+        <v>1528</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>825</v>
@@ -14471,8 +14471,8 @@
       <c r="D11" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>856</v>
+      <c r="E11" s="11" t="s">
+        <v>1528</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>826</v>
@@ -14498,8 +14498,8 @@
       <c r="D12" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>856</v>
+      <c r="E12" s="11" t="s">
+        <v>1528</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>827</v>
@@ -14700,7 +14700,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>52</v>
@@ -14718,7 +14718,7 @@
         <v>50</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>
@@ -15458,7 +15458,7 @@
         <v>238</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>520</v>
@@ -15467,27 +15467,27 @@
         <v>461</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B2" t="s">
         <v>1499</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F2" t="s">
         <v>1501</v>
       </c>
-      <c r="C2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1503</v>
-      </c>
       <c r="G2" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -15513,13 +15513,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>223</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>35</v>
@@ -15527,16 +15527,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B2" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C2" t="s">
         <v>498</v>
       </c>
       <c r="D2" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -15569,24 +15569,24 @@
         <v>220</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>222</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>498</v>
@@ -15598,15 +15598,15 @@
         <v>498</v>
       </c>
       <c r="F2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>258</v>
@@ -15618,12 +15618,12 @@
         <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B4" t="s">
         <v>224</v>
@@ -15638,12 +15638,12 @@
         <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B5" t="s">
         <v>588</v>
@@ -15658,15 +15658,15 @@
         <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>258</v>
@@ -15678,15 +15678,15 @@
         <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B7" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>258</v>
@@ -15698,12 +15698,12 @@
         <v>258</v>
       </c>
       <c r="F7" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B8" t="s">
         <v>592</v>
@@ -15718,12 +15718,12 @@
         <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B9" t="s">
         <v>595</v>
@@ -15738,12 +15738,12 @@
         <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B10" t="s">
         <v>598</v>
@@ -15758,12 +15758,12 @@
         <v>258</v>
       </c>
       <c r="F10" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B11" t="s">
         <v>601</v>
@@ -15778,12 +15778,12 @@
         <v>258</v>
       </c>
       <c r="F11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B12" t="s">
         <v>604</v>
@@ -15798,12 +15798,12 @@
         <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B13" t="s">
         <v>606</v>
@@ -15818,12 +15818,12 @@
         <v>258</v>
       </c>
       <c r="F13" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B14" t="s">
         <v>609</v>
@@ -15838,12 +15838,12 @@
         <v>258</v>
       </c>
       <c r="F14" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B15" t="s">
         <v>611</v>
@@ -15858,12 +15858,12 @@
         <v>258</v>
       </c>
       <c r="F15" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B16" t="s">
         <v>614</v>
@@ -15878,12 +15878,12 @@
         <v>258</v>
       </c>
       <c r="F16" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B17" t="s">
         <v>616</v>
@@ -15898,12 +15898,12 @@
         <v>258</v>
       </c>
       <c r="F17" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B18" t="s">
         <v>619</v>
@@ -15918,12 +15918,12 @@
         <v>258</v>
       </c>
       <c r="F18" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B19" t="s">
         <v>622</v>
@@ -15938,12 +15938,12 @@
         <v>258</v>
       </c>
       <c r="F19" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B20" t="s">
         <v>625</v>
@@ -15958,12 +15958,12 @@
         <v>258</v>
       </c>
       <c r="F20" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B21" t="s">
         <v>628</v>
@@ -15978,12 +15978,12 @@
         <v>258</v>
       </c>
       <c r="F21" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B22" t="s">
         <v>630</v>
@@ -15998,12 +15998,12 @@
         <v>258</v>
       </c>
       <c r="F22" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B23" t="s">
         <v>633</v>
@@ -16018,12 +16018,12 @@
         <v>258</v>
       </c>
       <c r="F23" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B24" t="s">
         <v>636</v>
@@ -16038,12 +16038,12 @@
         <v>258</v>
       </c>
       <c r="F24" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B25" t="s">
         <v>639</v>
@@ -16058,12 +16058,12 @@
         <v>258</v>
       </c>
       <c r="F25" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B26" t="s">
         <v>642</v>
@@ -16078,12 +16078,12 @@
         <v>258</v>
       </c>
       <c r="F26" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B27" t="s">
         <v>644</v>
@@ -16098,12 +16098,12 @@
         <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B28" t="s">
         <v>647</v>
@@ -16118,12 +16118,12 @@
         <v>258</v>
       </c>
       <c r="F28" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B29" t="s">
         <v>649</v>
@@ -16138,12 +16138,12 @@
         <v>258</v>
       </c>
       <c r="F29" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B30" t="s">
         <v>652</v>
@@ -16158,12 +16158,12 @@
         <v>258</v>
       </c>
       <c r="F30" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B31" t="s">
         <v>655</v>
@@ -16178,12 +16178,12 @@
         <v>258</v>
       </c>
       <c r="F31" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B32" t="s">
         <v>657</v>
@@ -16198,12 +16198,12 @@
         <v>258</v>
       </c>
       <c r="F32" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B33" t="s">
         <v>660</v>
@@ -16218,12 +16218,12 @@
         <v>258</v>
       </c>
       <c r="F33" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B34" t="s">
         <v>663</v>
@@ -16238,12 +16238,12 @@
         <v>258</v>
       </c>
       <c r="F34" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B35" t="s">
         <v>666</v>
@@ -16258,12 +16258,12 @@
         <v>258</v>
       </c>
       <c r="F35" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B36" t="s">
         <v>669</v>
@@ -16278,12 +16278,12 @@
         <v>258</v>
       </c>
       <c r="F36" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B37" t="s">
         <v>671</v>
@@ -16298,12 +16298,12 @@
         <v>258</v>
       </c>
       <c r="F37" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B38" t="s">
         <v>673</v>
@@ -16318,12 +16318,12 @@
         <v>258</v>
       </c>
       <c r="F38" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B39" t="s">
         <v>676</v>
@@ -16338,12 +16338,12 @@
         <v>258</v>
       </c>
       <c r="F39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B40" t="s">
         <v>679</v>
@@ -16358,12 +16358,12 @@
         <v>258</v>
       </c>
       <c r="F40" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B41" t="s">
         <v>682</v>
@@ -16378,12 +16378,12 @@
         <v>258</v>
       </c>
       <c r="F41" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B42" t="s">
         <v>685</v>
@@ -16398,12 +16398,12 @@
         <v>258</v>
       </c>
       <c r="F42" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B43" t="s">
         <v>687</v>
@@ -16418,12 +16418,12 @@
         <v>258</v>
       </c>
       <c r="F43" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B44" t="s">
         <v>690</v>
@@ -16438,12 +16438,12 @@
         <v>258</v>
       </c>
       <c r="F44" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B45" t="s">
         <v>693</v>
@@ -16458,12 +16458,12 @@
         <v>258</v>
       </c>
       <c r="F45" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B46" t="s">
         <v>696</v>
@@ -16478,12 +16478,12 @@
         <v>258</v>
       </c>
       <c r="F46" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B47" t="s">
         <v>699</v>
@@ -16498,12 +16498,12 @@
         <v>258</v>
       </c>
       <c r="F47" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B48" t="s">
         <v>702</v>
@@ -16518,15 +16518,15 @@
         <v>258</v>
       </c>
       <c r="F48" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B49" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>258</v>
@@ -16538,12 +16538,12 @@
         <v>258</v>
       </c>
       <c r="F49" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B50" t="s">
         <v>706</v>
@@ -16558,12 +16558,12 @@
         <v>258</v>
       </c>
       <c r="F50" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B51" t="s">
         <v>709</v>
@@ -16572,18 +16572,18 @@
         <v>258</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E51" s="63" t="s">
         <v>258</v>
       </c>
       <c r="F51" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B52" t="s">
         <v>711</v>
@@ -16598,12 +16598,12 @@
         <v>258</v>
       </c>
       <c r="F52" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B53" t="s">
         <v>713</v>
@@ -16618,12 +16618,12 @@
         <v>258</v>
       </c>
       <c r="F53" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B54" t="s">
         <v>716</v>
@@ -16638,12 +16638,12 @@
         <v>258</v>
       </c>
       <c r="F54" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B55" t="s">
         <v>719</v>
@@ -16658,12 +16658,12 @@
         <v>258</v>
       </c>
       <c r="F55" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B56" t="s">
         <v>722</v>
@@ -16678,12 +16678,12 @@
         <v>258</v>
       </c>
       <c r="F56" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B57" t="s">
         <v>725</v>
@@ -16698,12 +16698,12 @@
         <v>258</v>
       </c>
       <c r="F57" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B58" t="s">
         <v>728</v>
@@ -16718,12 +16718,12 @@
         <v>258</v>
       </c>
       <c r="F58" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B59" t="s">
         <v>731</v>
@@ -16738,12 +16738,12 @@
         <v>258</v>
       </c>
       <c r="F59" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B60" t="s">
         <v>734</v>
@@ -16758,12 +16758,12 @@
         <v>258</v>
       </c>
       <c r="F60" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B61" t="s">
         <v>737</v>
@@ -16778,12 +16778,12 @@
         <v>258</v>
       </c>
       <c r="F61" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B62" t="s">
         <v>740</v>
@@ -16798,32 +16798,32 @@
         <v>258</v>
       </c>
       <c r="F62" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B63" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E63" s="63" t="s">
         <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B64" t="s">
         <v>743</v>
@@ -16838,12 +16838,12 @@
         <v>258</v>
       </c>
       <c r="F64" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B65" t="s">
         <v>746</v>
@@ -16858,12 +16858,12 @@
         <v>258</v>
       </c>
       <c r="F65" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B66" t="s">
         <v>749</v>
@@ -16878,15 +16878,15 @@
         <v>258</v>
       </c>
       <c r="F66" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B67" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>258</v>
@@ -16898,12 +16898,12 @@
         <v>258</v>
       </c>
       <c r="F67" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B68" t="s">
         <v>753</v>
@@ -16918,12 +16918,12 @@
         <v>258</v>
       </c>
       <c r="F68" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B69" t="s">
         <v>756</v>
@@ -16938,12 +16938,12 @@
         <v>258</v>
       </c>
       <c r="F69" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B70" t="s">
         <v>758</v>
@@ -16958,12 +16958,12 @@
         <v>258</v>
       </c>
       <c r="F70" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B71" t="s">
         <v>760</v>
@@ -16978,12 +16978,12 @@
         <v>258</v>
       </c>
       <c r="F71" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B72" t="s">
         <v>762</v>
@@ -16998,12 +16998,12 @@
         <v>258</v>
       </c>
       <c r="F72" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B73" t="s">
         <v>764</v>
@@ -17018,12 +17018,12 @@
         <v>258</v>
       </c>
       <c r="F73" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B74" t="s">
         <v>766</v>
@@ -17038,12 +17038,12 @@
         <v>258</v>
       </c>
       <c r="F74" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B75" t="s">
         <v>768</v>
@@ -17058,12 +17058,12 @@
         <v>258</v>
       </c>
       <c r="F75" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B76" t="s">
         <v>770</v>
@@ -17078,12 +17078,12 @@
         <v>258</v>
       </c>
       <c r="F76" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B77" t="s">
         <v>772</v>
@@ -17098,7 +17098,7 @@
         <v>258</v>
       </c>
       <c r="F77" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -17132,24 +17132,24 @@
         <v>220</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>222</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>498</v>
@@ -17161,21 +17161,21 @@
         <v>498</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>258</v>
@@ -17184,16 +17184,16 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>258</v>
@@ -17201,16 +17201,16 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>258</v>
@@ -17219,67 +17219,67 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>224</v>
@@ -17288,7 +17288,7 @@
         <v>258</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>258</v>
@@ -17297,16 +17297,16 @@
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>258</v>
@@ -17315,16 +17315,16 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>258</v>
@@ -17333,16 +17333,16 @@
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>258</v>
@@ -17351,16 +17351,16 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>258</v>
@@ -17369,16 +17369,16 @@
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>258</v>
@@ -17387,16 +17387,16 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>258</v>
@@ -17405,36 +17405,36 @@
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>258</v>
@@ -17443,36 +17443,36 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>258</v>
@@ -17481,16 +17481,16 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>258</v>
@@ -17499,36 +17499,36 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>258</v>
@@ -17537,16 +17537,16 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>258</v>
@@ -17555,16 +17555,16 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>258</v>
@@ -17573,16 +17573,16 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>258</v>
@@ -17591,16 +17591,16 @@
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>258</v>
@@ -17609,16 +17609,16 @@
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>258</v>
@@ -17627,16 +17627,16 @@
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>258</v>
@@ -17645,16 +17645,16 @@
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>258</v>
@@ -17663,16 +17663,16 @@
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>258</v>
@@ -17681,16 +17681,16 @@
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>258</v>
@@ -17699,16 +17699,16 @@
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>258</v>
@@ -17717,16 +17717,16 @@
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>258</v>
@@ -17735,16 +17735,16 @@
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>258</v>
@@ -17753,16 +17753,16 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>258</v>
@@ -17771,10 +17771,10 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>258</v>
@@ -17786,15 +17786,15 @@
         <v>258</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>258</v>
@@ -17806,21 +17806,21 @@
         <v>258</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>258</v>
@@ -17829,16 +17829,16 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>258</v>
@@ -17847,16 +17847,16 @@
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>258</v>
@@ -17865,16 +17865,16 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>258</v>
@@ -17883,16 +17883,16 @@
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>258</v>
@@ -17901,16 +17901,16 @@
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>258</v>
@@ -17919,16 +17919,16 @@
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>258</v>
@@ -17937,16 +17937,16 @@
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>258</v>
@@ -17955,16 +17955,16 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>258</v>
@@ -17973,16 +17973,16 @@
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>258</v>
@@ -17991,16 +17991,16 @@
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>258</v>
@@ -18009,16 +18009,16 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>258</v>
@@ -18027,16 +18027,16 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>258</v>
@@ -18045,16 +18045,16 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>258</v>
@@ -18063,16 +18063,16 @@
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>258</v>
@@ -18081,16 +18081,16 @@
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>258</v>
@@ -18099,16 +18099,16 @@
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>258</v>
@@ -18117,16 +18117,16 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>258</v>
@@ -18135,16 +18135,16 @@
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>258</v>
@@ -18153,16 +18153,16 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>258</v>
@@ -18171,16 +18171,16 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>258</v>
@@ -18189,16 +18189,16 @@
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>258</v>
@@ -18207,16 +18207,16 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>258</v>
@@ -18225,16 +18225,16 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>258</v>
@@ -18243,16 +18243,16 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>258</v>
@@ -18261,16 +18261,16 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>258</v>
@@ -18279,16 +18279,16 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>258</v>
@@ -18297,16 +18297,16 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>258</v>
@@ -18315,16 +18315,16 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>258</v>
@@ -18333,16 +18333,16 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>258</v>
@@ -18351,10 +18351,10 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>258</v>
@@ -18369,16 +18369,16 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>258</v>
@@ -18387,16 +18387,16 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>258</v>
@@ -18405,16 +18405,16 @@
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>258</v>
@@ -18423,16 +18423,16 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>258</v>
@@ -18441,16 +18441,16 @@
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>258</v>
@@ -18459,16 +18459,16 @@
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>258</v>
@@ -18477,16 +18477,16 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>258</v>
@@ -18495,16 +18495,16 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>258</v>
@@ -18513,16 +18513,16 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>258</v>
@@ -18531,16 +18531,16 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>258</v>
@@ -18549,16 +18549,16 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>258</v>
@@ -18567,16 +18567,16 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>258</v>
@@ -18585,16 +18585,16 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>258</v>
@@ -18603,16 +18603,16 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>258</v>
@@ -18621,16 +18621,16 @@
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>258</v>
@@ -18639,16 +18639,16 @@
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>258</v>
@@ -18657,16 +18657,16 @@
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>258</v>
@@ -18675,16 +18675,16 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>258</v>
@@ -18693,16 +18693,16 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>258</v>
@@ -18711,16 +18711,16 @@
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>258</v>
@@ -18729,10 +18729,10 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>258</v>
@@ -18747,16 +18747,16 @@
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>258</v>
@@ -18765,16 +18765,16 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>258</v>
@@ -18783,16 +18783,16 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>258</v>
@@ -18801,16 +18801,16 @@
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>258</v>
@@ -18819,16 +18819,16 @@
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>258</v>
@@ -18837,16 +18837,16 @@
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>258</v>
@@ -18855,16 +18855,16 @@
     </row>
     <row r="96" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>258</v>
@@ -18873,16 +18873,16 @@
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>258</v>
@@ -18891,16 +18891,16 @@
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>258</v>
@@ -18909,16 +18909,16 @@
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>258</v>
@@ -18927,16 +18927,16 @@
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>258</v>
@@ -18945,16 +18945,16 @@
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>258</v>
@@ -18963,16 +18963,16 @@
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>258</v>
@@ -18981,16 +18981,16 @@
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>258</v>
@@ -18999,16 +18999,16 @@
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D104" s="45" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>258</v>
@@ -19017,16 +19017,16 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>258</v>
@@ -19035,16 +19035,16 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D106" s="45" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>258</v>
@@ -19053,16 +19053,16 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D107" s="45" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>258</v>
@@ -19071,16 +19071,16 @@
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D108" s="45" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>258</v>
@@ -19089,16 +19089,16 @@
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>258</v>
@@ -19107,16 +19107,16 @@
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B110" s="45" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D110" s="45" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>258</v>
@@ -19125,16 +19125,16 @@
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B111" s="45" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D111" s="45" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>258</v>
@@ -19143,16 +19143,16 @@
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D112" s="45" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>258</v>
@@ -19161,16 +19161,16 @@
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D113" s="45" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>258</v>
@@ -19179,7 +19179,7 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>225</v>
@@ -19188,7 +19188,7 @@
         <v>258</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>258</v>
@@ -19197,10 +19197,10 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>258</v>
@@ -19215,16 +19215,16 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D116" s="45" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>258</v>
@@ -19233,16 +19233,16 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D117" s="45" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>258</v>
@@ -19251,16 +19251,16 @@
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D118" s="45" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>258</v>
@@ -19269,16 +19269,16 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D119" s="45" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>258</v>
@@ -19287,16 +19287,16 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D120" s="45" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>258</v>
@@ -19305,16 +19305,16 @@
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D121" s="45" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>258</v>
@@ -19323,16 +19323,16 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B122" s="45" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D122" s="45" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>258</v>
@@ -19341,16 +19341,16 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B123" s="45" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D123" s="45" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>258</v>
@@ -19359,16 +19359,16 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B124" s="45" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D124" s="45" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>258</v>
@@ -19377,16 +19377,16 @@
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D125" s="45" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>258</v>
@@ -19395,16 +19395,16 @@
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B126" s="45" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D126" s="45" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>258</v>
@@ -19413,16 +19413,16 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B127" s="45" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D127" s="45" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>258</v>
@@ -19431,16 +19431,16 @@
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B128" s="45" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D128" s="45" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>258</v>
@@ -19449,16 +19449,16 @@
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B129" s="45" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D129" s="45" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>258</v>
@@ -19467,16 +19467,16 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B130" s="45" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D130" s="45" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>258</v>
@@ -19485,10 +19485,10 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B131" s="45" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>258</v>
@@ -19503,16 +19503,16 @@
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B132" s="45" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D132" s="45" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>258</v>
@@ -19521,16 +19521,16 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B133" s="45" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D133" s="45" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>258</v>
@@ -19539,16 +19539,16 @@
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B134" s="45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D134" s="45" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>258</v>
@@ -19557,16 +19557,16 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B135" s="45" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D135" s="45" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>258</v>
@@ -19575,7 +19575,7 @@
     </row>
     <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B136" s="45" t="s">
         <v>226</v>
@@ -19584,7 +19584,7 @@
         <v>258</v>
       </c>
       <c r="D136" s="45" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>258</v>
@@ -19593,16 +19593,16 @@
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D137" s="45" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>258</v>
@@ -19611,16 +19611,16 @@
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D138" s="45" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>258</v>
@@ -19629,16 +19629,16 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B139" s="45" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D139" s="45" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>258</v>
@@ -19647,16 +19647,16 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B140" s="45" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D140" s="45" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>258</v>
@@ -19665,16 +19665,16 @@
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B141" s="45" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D141" s="45" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>258</v>
@@ -19683,16 +19683,16 @@
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B142" s="45" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D142" s="45" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>258</v>
@@ -19701,16 +19701,16 @@
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D143" s="45" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>258</v>
@@ -19719,16 +19719,16 @@
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B144" s="45" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D144" s="45" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>258</v>
@@ -19737,16 +19737,16 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B145" s="45" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D145" s="45" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>258</v>
@@ -19755,16 +19755,16 @@
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B146" s="45" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D146" s="45" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>258</v>
@@ -19773,16 +19773,16 @@
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B147" s="45" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D147" s="45" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>258</v>
@@ -19791,16 +19791,16 @@
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B148" s="45" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D148" s="45" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>258</v>
@@ -19809,16 +19809,16 @@
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D149" s="45" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>258</v>
@@ -19827,16 +19827,16 @@
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B150" s="45" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D150" s="45" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>258</v>
@@ -19845,7 +19845,7 @@
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B151" s="45" t="s">
         <v>227</v>
@@ -19854,7 +19854,7 @@
         <v>258</v>
       </c>
       <c r="D151" s="45" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>258</v>
@@ -19863,10 +19863,10 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B152" s="45" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>258</v>
@@ -19881,16 +19881,16 @@
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B153" s="45" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D153" s="45" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>258</v>
@@ -19899,16 +19899,16 @@
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B154" s="45" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D154" s="45" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>258</v>
@@ -19917,7 +19917,7 @@
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B155" s="45" t="s">
         <v>228</v>
@@ -19926,7 +19926,7 @@
         <v>258</v>
       </c>
       <c r="D155" s="45" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>258</v>
@@ -19935,7 +19935,7 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B156" s="45" t="s">
         <v>229</v>
@@ -19944,7 +19944,7 @@
         <v>258</v>
       </c>
       <c r="D156" s="45" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>258</v>
@@ -19981,7 +19981,7 @@
     </row>
     <row r="2" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>832</v>
@@ -19989,7 +19989,7 @@
     </row>
     <row r="3" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>831</v>
@@ -19997,13 +19997,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>829</v>
@@ -20011,7 +20011,7 @@
     </row>
     <row r="6" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>830</v>
@@ -20019,13 +20019,13 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>594</v>
@@ -20033,7 +20033,7 @@
     </row>
     <row r="9" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>597</v>
@@ -20041,7 +20041,7 @@
     </row>
     <row r="10" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>600</v>
@@ -20049,7 +20049,7 @@
     </row>
     <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>603</v>
@@ -20057,13 +20057,13 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>608</v>
@@ -20071,7 +20071,7 @@
     </row>
     <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>833</v>
@@ -20079,7 +20079,7 @@
     </row>
     <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>613</v>
@@ -20087,7 +20087,7 @@
     </row>
     <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>774</v>
@@ -20095,7 +20095,7 @@
     </row>
     <row r="17" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>618</v>
@@ -20103,7 +20103,7 @@
     </row>
     <row r="18" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>621</v>
@@ -20111,7 +20111,7 @@
     </row>
     <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>624</v>
@@ -20119,7 +20119,7 @@
     </row>
     <row r="20" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B20" s="45" t="s">
         <v>627</v>
@@ -20127,13 +20127,13 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B22" s="45" t="s">
         <v>632</v>
@@ -20141,7 +20141,7 @@
     </row>
     <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B23" s="45" t="s">
         <v>635</v>
@@ -20149,7 +20149,7 @@
     </row>
     <row r="24" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B24" s="45" t="s">
         <v>638</v>
@@ -20157,7 +20157,7 @@
     </row>
     <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B25" s="45" t="s">
         <v>641</v>
@@ -20165,13 +20165,13 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B27" s="45" t="s">
         <v>646</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B28" s="45" t="s">
         <v>850</v>
@@ -20187,7 +20187,7 @@
     </row>
     <row r="29" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B29" s="45" t="s">
         <v>651</v>
@@ -20195,7 +20195,7 @@
     </row>
     <row r="30" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B30" s="45" t="s">
         <v>654</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="31" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B31" s="45" t="s">
         <v>656</v>
@@ -20211,7 +20211,7 @@
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>659</v>
@@ -20219,7 +20219,7 @@
     </row>
     <row r="33" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>662</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="34" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>665</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="35" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>668</v>
@@ -20243,7 +20243,7 @@
     </row>
     <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B36" s="47" t="s">
         <v>834</v>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>835</v>
@@ -20259,7 +20259,7 @@
     </row>
     <row r="38" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B38" s="45" t="s">
         <v>675</v>
@@ -20267,7 +20267,7 @@
     </row>
     <row r="39" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>678</v>
@@ -20275,7 +20275,7 @@
     </row>
     <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B40" s="45" t="s">
         <v>681</v>
@@ -20283,7 +20283,7 @@
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B41" s="45" t="s">
         <v>684</v>
@@ -20291,13 +20291,13 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B42" s="12"/>
     </row>
     <row r="43" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B43" s="45" t="s">
         <v>689</v>
@@ -20305,7 +20305,7 @@
     </row>
     <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B44" s="45" t="s">
         <v>692</v>
@@ -20313,7 +20313,7 @@
     </row>
     <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B45" s="45" t="s">
         <v>695</v>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B46" s="45" t="s">
         <v>698</v>
@@ -20329,7 +20329,7 @@
     </row>
     <row r="47" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B47" s="45" t="s">
         <v>701</v>
@@ -20337,7 +20337,7 @@
     </row>
     <row r="48" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B48" s="45" t="s">
         <v>704</v>
@@ -20345,13 +20345,13 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B49" s="12"/>
     </row>
     <row r="50" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B50" s="45" t="s">
         <v>708</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="51" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>710</v>
@@ -20367,13 +20367,13 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B52" s="12"/>
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B53" s="45" t="s">
         <v>715</v>
@@ -20381,7 +20381,7 @@
     </row>
     <row r="54" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B54" s="45" t="s">
         <v>718</v>
@@ -20389,7 +20389,7 @@
     </row>
     <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B55" s="45" t="s">
         <v>721</v>
@@ -20397,7 +20397,7 @@
     </row>
     <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B56" s="45" t="s">
         <v>724</v>
@@ -20405,7 +20405,7 @@
     </row>
     <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>727</v>
@@ -20413,7 +20413,7 @@
     </row>
     <row r="58" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B58" s="45" t="s">
         <v>730</v>
@@ -20421,7 +20421,7 @@
     </row>
     <row r="59" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B59" s="45" t="s">
         <v>733</v>
@@ -20429,7 +20429,7 @@
     </row>
     <row r="60" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B60" s="45" t="s">
         <v>736</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="61" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B61" s="45" t="s">
         <v>739</v>
@@ -20445,7 +20445,7 @@
     </row>
     <row r="62" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B62" s="45" t="s">
         <v>742</v>
@@ -20453,13 +20453,13 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B63" s="12"/>
     </row>
     <row r="64" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B64" s="45" t="s">
         <v>745</v>
@@ -20467,7 +20467,7 @@
     </row>
     <row r="65" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>748</v>
@@ -20475,7 +20475,7 @@
     </row>
     <row r="66" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>751</v>
@@ -20483,7 +20483,7 @@
     </row>
     <row r="67" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B67" s="45" t="s">
         <v>775</v>
@@ -20491,7 +20491,7 @@
     </row>
     <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B68" s="45" t="s">
         <v>836</v>
@@ -20499,7 +20499,7 @@
     </row>
     <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B69" s="45" t="s">
         <v>755</v>
@@ -20507,7 +20507,7 @@
     </row>
     <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B70" s="45" t="s">
         <v>755</v>
@@ -20515,7 +20515,7 @@
     </row>
     <row r="71" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B71" s="45" t="s">
         <v>755</v>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B72" s="45" t="s">
         <v>755</v>
@@ -20531,7 +20531,7 @@
     </row>
     <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>755</v>
@@ -20539,7 +20539,7 @@
     </row>
     <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B74" s="45" t="s">
         <v>755</v>
@@ -20547,7 +20547,7 @@
     </row>
     <row r="75" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>755</v>
@@ -20555,7 +20555,7 @@
     </row>
     <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B76" s="45" t="s">
         <v>755</v>
@@ -20563,7 +20563,7 @@
     </row>
     <row r="77" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>755</v>
@@ -20571,31 +20571,31 @@
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>836</v>
@@ -20603,7 +20603,7 @@
     </row>
     <row r="82" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>829</v>
@@ -20611,7 +20611,7 @@
     </row>
     <row r="83" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B83" s="45" t="s">
         <v>830</v>
@@ -20619,15 +20619,15 @@
     </row>
     <row r="84" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B85" s="45" t="s">
         <v>613</v>
@@ -20635,7 +20635,7 @@
     </row>
     <row r="86" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B86" s="45" t="s">
         <v>774</v>
@@ -20701,18 +20701,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B6" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -20742,7 +20742,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>221</v>
@@ -20754,30 +20754,30 @@
         <v>238</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>253</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F2" t="s">
         <v>1512</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>1513</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1515</v>
       </c>
     </row>
   </sheetData>
@@ -20831,7 +20831,7 @@
         <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -20874,7 +20874,7 @@
         <v>515</v>
       </c>
       <c r="D4" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>76</v>
@@ -20907,7 +20907,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -20915,7 +20915,7 @@
         <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -20955,21 +20955,21 @@
         <v>26</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B2" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C2" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -21071,7 +21071,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>417</v>
@@ -21167,7 +21167,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -21312,10 +21312,10 @@
         <v>514</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -21329,7 +21329,7 @@
         <v>519</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>515</v>
@@ -21341,17 +21341,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -21552,6 +21541,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21562,23 +21562,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21597,6 +21580,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
